--- a/medicine/Psychotrope/Hakushu/Hakushu.xlsx
+++ b/medicine/Psychotrope/Hakushu/Hakushu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La distillerie Hakushu (白州蒸溜所, Hakushū jōryūsho?) est une distillerie de whisky japonais située à Hokuto dans la préfecture de Yamanashi (région du Chūbu), dans le lieu-dit Toribara (鳥原?, se lit aussi Torihara) de l'ancien bourg de Hakushū (白州町, Hakushū-machi?).
@@ -513,16 +525,18 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Gamme principale :
-Hakushu Single malt 43 %[1] ;
-Hakushu Single malt 12 ans 43 %[1],[2] ;
-Hakushu Single malt 18 ans 43 %[1],[2] ;
-Hakushu Single malt 25 ans 43 %[1],[2].
+Hakushu Single malt 43 % ;
+Hakushu Single malt 12 ans 43 %, ;
+Hakushu Single malt 18 ans 43 %, ;
+Hakushu Single malt 25 ans 43 %,.
 Séries limitées :
-2013 : Heavily Peated 48 %[1] ;
-2014 : Sherry Cask 48 %[1].</t>
+2013 : Heavily Peated 48 % ;
+2014 : Sherry Cask 48 %.</t>
         </is>
       </c>
     </row>
